--- a/z/data/model/REACH_SVHC_Candidate_List.xlsx
+++ b/z/data/model/REACH_SVHC_Candidate_List.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen-fr\OneDrive - Cutting-Edge\chenhuai\python\work\z\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenhuai\python\work\z\data\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13345526-4DCD-40BE-9486-B8ED95EE89F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10260" windowHeight="8115" tabRatio="772"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="78" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1018">
   <si>
     <t>1,2-bis(2-methoxyethoxy)ethane (TEGDME; triglyme)</t>
   </si>
@@ -1237,9 +1238,6 @@
     <t>2008/10/28</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>1-bromopropane (n-propyl bromide)</t>
   </si>
   <si>
@@ -1594,7 +1592,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3372,16 +3370,24 @@
   <si>
     <t>荧蒽</t>
   </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3405,7 +3411,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3425,14 +3431,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3444,7 +3450,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -3821,9 +3827,6 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3904,6 +3907,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4094,20 +4100,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>71581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="TS_SC_HO_COL(JPG).jpg"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="TS_SC_HO_COL(JPG).jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4132,20 +4144,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>96569</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="TS_SC_HO_COL(JPG).jpg"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="TS_SC_HO_COL(JPG).jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4170,20 +4188,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>190644</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="TS_SC_HO_COL(JPG).jpg"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="TS_SC_HO_COL(JPG).jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4208,20 +4232,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>581169</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="TS_SC_HO_COL(JPG).jpg"/>
+        <xdr:cNvPr id="5" name="Picture 4" descr="TS_SC_HO_COL(JPG).jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4246,20 +4276,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1700892</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>27214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2312893</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>739989</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="Product Service (1).jpg"/>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Product Service (1).jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4294,15 +4330,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table15" displayName="Table15" ref="B4:G201" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B4:G201"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="C4:H201" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="C4:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C5:H201">
+    <sortCondition ref="C4:C201"/>
+  </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="物质名称(英文)" dataDxfId="5"/>
-    <tableColumn id="23" name="物质名称(中文)" dataDxfId="4"/>
-    <tableColumn id="2" name="列入日期" dataDxfId="3"/>
-    <tableColumn id="6" name="EC 号码" dataDxfId="2"/>
-    <tableColumn id="4" name="CAS 号码" dataDxfId="1"/>
-    <tableColumn id="24" name="可能用途" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="物质名称(英文)" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="物质名称(中文)" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="列入日期" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="EC 号码" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CAS 号码" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="可能用途" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4384,6 +4423,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4419,6 +4475,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4594,4644 +4667,5000 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G206"/>
+  <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="27" customWidth="1"/>
-    <col min="2" max="3" width="35.85546875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="31" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="32" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="57.28515625" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="2" width="5.59765625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="56.86328125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="35.86328125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="12.86328125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="18.86328125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="15.3984375" style="32" customWidth="1"/>
+    <col min="8" max="8" width="57.265625" style="23" customWidth="1"/>
+    <col min="9" max="16384" width="9.1328125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="61.5" customHeight="1">
-      <c r="B1" s="55" t="s">
+    <row r="1" spans="1:8" ht="61.5" customHeight="1">
+      <c r="C1" s="54" t="s">
+        <v>824</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="C2" s="29" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="4" spans="1:8" s="26" customFormat="1" ht="21" customHeight="1">
+      <c r="A4" s="25" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>825</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" s="29" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="4" spans="1:7" s="26" customFormat="1" ht="21" customHeight="1">
-      <c r="A4" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="D4" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>826</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="F4" s="45" t="s">
         <v>827</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="G4" s="17" t="s">
         <v>828</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>829</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="26" customFormat="1" ht="62.25" customHeight="1">
+      <c r="H4" s="17" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="26" customFormat="1" ht="107.65" customHeight="1">
       <c r="A5" s="37">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>988</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>994</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>995</v>
+      <c r="B5" s="37"/>
+      <c r="C5" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>383</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>996</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="26" customFormat="1" ht="44.25" customHeight="1">
+        <v>22</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="26" customFormat="1" ht="44.25" customHeight="1">
       <c r="A6" s="37">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>989</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>994</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>997</v>
+      <c r="B6" s="37"/>
+      <c r="C6" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>383</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>998</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="26" customFormat="1" ht="48" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="26" customFormat="1" ht="48" customHeight="1">
       <c r="A7" s="37">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>990</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>994</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>999</v>
+      <c r="B7" s="37">
+        <v>105</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="26" customFormat="1" ht="39.75" customHeight="1">
+        <v>277</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="26" customFormat="1" ht="39.75" customHeight="1">
       <c r="A8" s="37">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>991</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>994</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>1001</v>
+      <c r="B8" s="37"/>
+      <c r="C8" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="26" customFormat="1" ht="38.25" customHeight="1">
+        <v>147</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="26" customFormat="1" ht="38.25" customHeight="1">
       <c r="A9" s="37">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>992</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>994</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="26" customFormat="1" ht="36.75" customHeight="1">
+      <c r="B9" s="37"/>
+      <c r="C9" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>837</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="26" customFormat="1" ht="36.75" customHeight="1">
       <c r="A10" s="37">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>993</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>994</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>1005</v>
+      <c r="B10" s="37"/>
+      <c r="C10" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>1006</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="26" customFormat="1" ht="68.25" customHeight="1">
+        <v>150</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="26" customFormat="1" ht="68.25" customHeight="1">
       <c r="A11" s="37">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>943</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>971</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>970</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>952</v>
+      <c r="B11" s="37"/>
+      <c r="C11" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>953</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="26" customFormat="1" ht="65.25" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="26" customFormat="1" ht="65.25" customHeight="1">
       <c r="A12" s="37">
         <v>8</v>
       </c>
-      <c r="B12" s="51" t="s">
-        <v>944</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>972</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>970</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>954</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>955</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="26" customFormat="1" ht="40.5" customHeight="1">
+      <c r="B12" s="37"/>
+      <c r="C12" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="26" customFormat="1" ht="40.5" customHeight="1">
       <c r="A13" s="37">
         <v>9</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>945</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>973</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>970</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>956</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>957</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="26" customFormat="1" ht="69.75" customHeight="1">
+      <c r="B13" s="37"/>
+      <c r="C13" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="26" customFormat="1" ht="69.75" customHeight="1">
       <c r="A14" s="37">
         <v>10</v>
       </c>
-      <c r="B14" s="51" t="s">
-        <v>946</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>974</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>970</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>958</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>959</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="26" customFormat="1" ht="56.25" customHeight="1">
+      <c r="B14" s="37"/>
+      <c r="C14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>598</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="26" customFormat="1" ht="56.25" customHeight="1">
       <c r="A15" s="37">
         <v>11</v>
       </c>
-      <c r="B15" s="51" t="s">
-        <v>947</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>975</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>970</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>960</v>
-      </c>
-      <c r="F15" s="53" t="s">
-        <v>961</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="26" customFormat="1" ht="74.25" customHeight="1">
+      <c r="B15" s="37"/>
+      <c r="C15" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="26" customFormat="1" ht="74.25" customHeight="1">
       <c r="A16" s="37">
         <v>12</v>
       </c>
-      <c r="B16" s="51" t="s">
-        <v>948</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>976</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>970</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>962</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>963</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="26" customFormat="1" ht="40.5" customHeight="1">
+      <c r="B16" s="37"/>
+      <c r="C16" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="26" customFormat="1" ht="40.5" customHeight="1">
       <c r="A17" s="37">
         <v>13</v>
       </c>
-      <c r="B17" s="51" t="s">
-        <v>949</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>977</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>970</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>964</v>
-      </c>
-      <c r="F17" s="54" t="s">
-        <v>965</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="26" customFormat="1" ht="40.5" customHeight="1">
+      <c r="B17" s="37"/>
+      <c r="C17" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>599</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="26" customFormat="1" ht="40.5" customHeight="1">
       <c r="A18" s="37">
         <v>14</v>
       </c>
-      <c r="B18" s="51" t="s">
-        <v>950</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>978</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>970</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>966</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>967</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="26" customFormat="1" ht="61.5" customHeight="1">
+      <c r="B18" s="37"/>
+      <c r="C18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="26" customFormat="1" ht="61.5" customHeight="1">
       <c r="A19" s="37">
         <v>15</v>
       </c>
-      <c r="B19" s="51" t="s">
-        <v>951</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>979</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>970</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>968</v>
-      </c>
-      <c r="F19" s="54" t="s">
-        <v>969</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="26" customFormat="1" ht="40.5" customHeight="1">
+      <c r="B19" s="37"/>
+      <c r="C19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="26" customFormat="1" ht="40.5" customHeight="1">
       <c r="A20" s="37">
         <v>16</v>
       </c>
-      <c r="B20" s="38" t="s">
-        <v>938</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>942</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>937</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>939</v>
+      <c r="B20" s="37"/>
+      <c r="C20" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>857</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>846</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>940</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="26" customFormat="1" ht="94.5">
+        <v>847</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="26" customFormat="1" ht="90">
       <c r="A21" s="37">
         <v>17</v>
       </c>
-      <c r="B21" s="47" t="s">
-        <v>906</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>927</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>913</v>
+      <c r="B21" s="37"/>
+      <c r="C21" s="46" t="s">
+        <v>905</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>926</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>903</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="26" customFormat="1" ht="78.75">
+        <v>902</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>902</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="26" customFormat="1" ht="60">
       <c r="A22" s="37">
         <v>18</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>907</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>928</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>913</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>914</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>934</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="26" customFormat="1" ht="63">
+      <c r="B22" s="37"/>
+      <c r="C22" s="8" t="s">
+        <v>987</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>995</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="26" customFormat="1" ht="60">
       <c r="A23" s="37">
         <v>19</v>
       </c>
-      <c r="B23" s="47" t="s">
-        <v>908</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>929</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>913</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>915</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>935</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="26" customFormat="1" ht="94.5">
+      <c r="B23" s="37"/>
+      <c r="C23" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="26" customFormat="1" ht="90">
       <c r="A24" s="37">
         <v>20</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>909</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>930</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>913</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>916</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>917</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="26" customFormat="1" ht="78.75">
+      <c r="B24" s="37"/>
+      <c r="C24" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>632</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="26" customFormat="1" ht="75">
       <c r="A25" s="37">
         <v>21</v>
       </c>
-      <c r="B25" s="47" t="s">
-        <v>910</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>931</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>913</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>918</v>
+      <c r="B25" s="37"/>
+      <c r="C25" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>859</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>867</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>919</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="26" customFormat="1" ht="78.75">
+        <v>851</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="26" customFormat="1" ht="60">
       <c r="A26" s="37">
         <v>22</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>911</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>932</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>913</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>920</v>
+      <c r="B26" s="37"/>
+      <c r="C26" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>499</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="26" customFormat="1" ht="94.5">
+        <v>474</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="26" customFormat="1" ht="75">
       <c r="A27" s="37">
         <v>23</v>
       </c>
-      <c r="B27" s="47" t="s">
-        <v>912</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>933</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>913</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>903</v>
-      </c>
-      <c r="F27" s="38" t="s">
-        <v>903</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="141.75">
+      <c r="B27" s="37"/>
+      <c r="C27" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>996</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="120">
       <c r="A28" s="37">
         <v>24</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>904</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>901</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>902</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>903</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>903</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="26" customFormat="1" ht="110.25">
+      <c r="B28" s="37"/>
+      <c r="C28" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>610</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="26" customFormat="1" ht="90">
       <c r="A29" s="37">
         <v>25</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>891</v>
-      </c>
+      <c r="B29" s="37"/>
       <c r="C29" s="12" t="s">
-        <v>882</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>885</v>
+        <v>61</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>389</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>884</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="26" customFormat="1" ht="63">
+        <v>62</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="26" customFormat="1" ht="45">
       <c r="A30" s="37">
         <v>26</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>892</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>886</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>888</v>
-      </c>
-      <c r="F30" s="43" t="s">
-        <v>887</v>
-      </c>
-      <c r="G30" s="42" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="26" customFormat="1" ht="78.75">
+      <c r="B30" s="37"/>
+      <c r="C30" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>858</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>849</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="26" customFormat="1" ht="60">
       <c r="A31" s="37">
         <v>27</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>893</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>896</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="E31" s="45" t="s">
-        <v>897</v>
+      <c r="B31" s="37"/>
+      <c r="C31" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>499</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>895</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="26" customFormat="1" ht="141.75">
+        <v>472</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="26" customFormat="1" ht="135">
       <c r="A32" s="37">
         <v>28</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>894</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>898</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="E32" s="44" t="s">
-        <v>447</v>
-      </c>
-      <c r="F32" s="43" t="s">
-        <v>447</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="26" customFormat="1" ht="84.75" customHeight="1">
+      <c r="B32" s="37"/>
+      <c r="C32" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>636</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F32" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="26" customFormat="1" ht="84.75" customHeight="1">
       <c r="A33" s="37">
         <v>29</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>863</v>
-      </c>
+      <c r="B33" s="37"/>
       <c r="C33" s="12" t="s">
-        <v>864</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>865</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>866</v>
+        <v>351</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>867</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="26" customFormat="1" ht="47.25">
+        <v>135</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="26" customFormat="1" ht="45">
       <c r="A34" s="37">
         <v>30</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>842</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>858</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>848</v>
+      <c r="B34" s="37">
+        <v>160</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>499</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="26" customFormat="1" ht="78.75">
+        <v>470</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="26" customFormat="1" ht="75">
       <c r="A35" s="37">
         <v>31</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>843</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>859</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>850</v>
+      <c r="B35" s="37"/>
+      <c r="C35" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>611</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>851</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="26" customFormat="1" ht="78.75">
+        <v>157</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="26" customFormat="1" ht="60">
       <c r="A36" s="37">
         <v>32</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>844</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>860</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>868</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>852</v>
+      <c r="B36" s="37"/>
+      <c r="C36" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>853</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="26" customFormat="1" ht="47.25">
+        <v>127</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="26" customFormat="1" ht="45">
       <c r="A37" s="37">
         <v>33</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>845</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>861</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>868</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>854</v>
+      <c r="B37" s="37"/>
+      <c r="C37" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>855</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="26" customFormat="1" ht="157.5">
+        <v>227</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="26" customFormat="1" ht="135">
       <c r="A38" s="37">
         <v>34</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>846</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>862</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>856</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>857</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="26" customFormat="1" ht="78.75">
+      <c r="B38" s="37"/>
+      <c r="C38" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="26" customFormat="1" ht="75">
       <c r="A39" s="37">
         <v>35</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>834</v>
-      </c>
+      <c r="B39" s="37"/>
       <c r="C39" s="12" t="s">
-        <v>835</v>
-      </c>
-      <c r="D39" s="36" t="s">
-        <v>838</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>839</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>840</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="126">
+        <v>371</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="120">
       <c r="A40" s="37">
         <v>36</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>836</v>
-      </c>
+      <c r="B40" s="37"/>
       <c r="C40" s="12" t="s">
-        <v>837</v>
-      </c>
-      <c r="D40" s="36" t="s">
-        <v>838</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>25</v>
+        <v>341</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>383</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="47.25">
+        <v>24</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="45">
       <c r="A41" s="37">
         <v>37</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>471</v>
+      <c r="B41" s="37"/>
+      <c r="C41" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>383</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="110.25">
+        <v>18</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="105">
       <c r="A42" s="37">
         <v>38</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>520</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>25</v>
+      <c r="B42" s="37"/>
+      <c r="C42" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="63">
+        <v>34</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="45">
       <c r="A43" s="37">
         <v>39</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>521</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>500</v>
+      <c r="B43" s="37"/>
+      <c r="C43" s="12" t="s">
+        <v>890</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>881</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="63">
+        <v>882</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>884</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="60">
       <c r="A44" s="37">
         <v>40</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>522</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>470</v>
+      <c r="B44" s="37"/>
+      <c r="C44" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="47.25">
+        <v>257</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30">
       <c r="A45" s="37">
         <v>41</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>473</v>
+      <c r="B45" s="37"/>
+      <c r="C45" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="28" customFormat="1" ht="78.75">
+        <v>317</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="28" customFormat="1" ht="60">
       <c r="A46" s="37">
         <v>42</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>524</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>475</v>
+      <c r="B46" s="37"/>
+      <c r="C46" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="28" customFormat="1" ht="31.5">
+        <v>294</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="28" customFormat="1" ht="30">
       <c r="A47" s="37">
         <v>43</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>525</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="28" customFormat="1" ht="47.25">
+      <c r="B47" s="37"/>
+      <c r="C47" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>897</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="F47" s="44" t="s">
+        <v>446</v>
+      </c>
+      <c r="G47" s="43" t="s">
+        <v>446</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="28" customFormat="1" ht="30">
       <c r="A48" s="37">
         <v>44</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>526</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="28" customFormat="1" ht="31.5">
+      <c r="B48" s="37"/>
+      <c r="C48" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="28" customFormat="1">
       <c r="A49" s="37">
         <v>45</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>446</v>
+      <c r="B49" s="37"/>
+      <c r="C49" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>25</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="37">
         <v>46</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>528</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="47.25">
+      <c r="B50" s="37"/>
+      <c r="C50" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="30">
       <c r="A51" s="37">
         <v>47</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="47.25">
+      <c r="B51" s="37"/>
+      <c r="C51" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>837</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="45">
       <c r="A52" s="37">
         <v>48</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>530</v>
-      </c>
-      <c r="D52" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="78.75">
+      <c r="B52" s="37"/>
+      <c r="C52" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="60">
       <c r="A53" s="37">
         <v>49</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="B53" s="37"/>
+      <c r="C53" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="37">
         <v>50</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>532</v>
-      </c>
-      <c r="D54" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="31.5">
+      <c r="B54" s="37"/>
+      <c r="C54" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="30">
       <c r="A55" s="37">
         <v>51</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>533</v>
-      </c>
-      <c r="D55" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="B55" s="37">
+        <v>102</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="37">
         <v>52</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>534</v>
-      </c>
-      <c r="D56" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="31.5">
+      <c r="B56" s="37">
+        <v>46</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>638</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="30">
       <c r="A57" s="37">
         <v>53</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="D57" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="G57" s="20" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="31.5">
+      <c r="B57" s="37"/>
+      <c r="C57" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>652</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="30">
       <c r="A58" s="37">
         <v>54</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="D58" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="63">
+      <c r="B58" s="37"/>
+      <c r="C58" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="45">
       <c r="A59" s="37">
         <v>55</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="D59" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="G59" s="19" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="B59" s="37">
+        <v>29</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="37">
         <v>56</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="D60" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="141.75">
+      <c r="B60" s="37">
+        <v>37</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>644</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="135">
       <c r="A61" s="37">
         <v>57</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C61" s="18" t="s">
+      <c r="B61" s="37"/>
+      <c r="C61" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="D61" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D61" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>25</v>
+      <c r="E61" s="33" t="s">
+        <v>451</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="63">
+        <v>331</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="60">
       <c r="A62" s="37">
         <v>58</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>540</v>
-      </c>
-      <c r="D62" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="47.25">
+      <c r="B62" s="37"/>
+      <c r="C62" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="45">
       <c r="A63" s="37">
         <v>59</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>541</v>
-      </c>
-      <c r="D63" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="141.75">
+      <c r="B63" s="37"/>
+      <c r="C63" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="120">
       <c r="A64" s="37">
         <v>60</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>542</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>25</v>
+      <c r="B64" s="37"/>
+      <c r="C64" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="63">
+        <v>71</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="45">
       <c r="A65" s="37">
         <v>61</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>543</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>202</v>
+      <c r="B65" s="37"/>
+      <c r="C65" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G65" s="19" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="94.5">
+        <v>74</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="90">
       <c r="A66" s="37">
         <v>62</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>544</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>25</v>
+      <c r="B66" s="37"/>
+      <c r="C66" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="47.25">
+        <v>76</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H66" s="19" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="30">
       <c r="A67" s="37">
         <v>63</v>
       </c>
-      <c r="B67" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>545</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>203</v>
+      <c r="B67" s="37"/>
+      <c r="C67" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>664</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G67" s="20" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="47.25">
+        <v>68</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="30">
       <c r="A68" s="37">
         <v>64</v>
       </c>
-      <c r="B68" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>546</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>204</v>
+      <c r="B68" s="37">
+        <v>58</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G68" s="20" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="189">
+        <v>161</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H68" s="20" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="150">
       <c r="A69" s="37">
         <v>65</v>
       </c>
-      <c r="B69" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>547</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="157.5">
+      <c r="B69" s="37"/>
+      <c r="C69" s="18" t="s">
+        <v>906</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>927</v>
+      </c>
+      <c r="E69" s="38" t="s">
+        <v>912</v>
+      </c>
+      <c r="F69" s="38" t="s">
+        <v>913</v>
+      </c>
+      <c r="G69" s="38" t="s">
+        <v>933</v>
+      </c>
+      <c r="H69" s="19" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="135">
       <c r="A70" s="37">
         <v>66</v>
       </c>
-      <c r="B70" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="47.25">
+      <c r="B70" s="37"/>
+      <c r="C70" s="38" t="s">
+        <v>937</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>941</v>
+      </c>
+      <c r="E70" s="38" t="s">
+        <v>936</v>
+      </c>
+      <c r="F70" s="38" t="s">
+        <v>938</v>
+      </c>
+      <c r="G70" s="38" t="s">
+        <v>939</v>
+      </c>
+      <c r="H70" s="19" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30">
       <c r="A71" s="37">
         <v>67</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>549</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>451</v>
+      <c r="B71" s="37"/>
+      <c r="C71" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>863</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G71" s="20" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>864</v>
+      </c>
+      <c r="F71" s="38" t="s">
+        <v>865</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="37">
         <v>68</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>550</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="31.5">
+      <c r="B72" s="37"/>
+      <c r="C72" s="50" t="s">
+        <v>947</v>
+      </c>
+      <c r="D72" s="48" t="s">
+        <v>975</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>969</v>
+      </c>
+      <c r="F72" s="51" t="s">
+        <v>961</v>
+      </c>
+      <c r="G72" s="52" t="s">
+        <v>962</v>
+      </c>
+      <c r="H72" s="49" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30">
       <c r="A73" s="37">
         <v>69</v>
       </c>
-      <c r="B73" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>551</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>451</v>
+      <c r="B73" s="37"/>
+      <c r="C73" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>1012</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>207</v>
+        <v>993</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>998</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="37">
         <v>70</v>
       </c>
-      <c r="B74" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>552</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>25</v>
+      <c r="B74" s="37"/>
+      <c r="C74" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="31.5">
+        <v>42</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H74" s="19" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30">
       <c r="A75" s="37">
         <v>71</v>
       </c>
-      <c r="B75" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>208</v>
+      <c r="B75" s="37"/>
+      <c r="C75" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="78.75">
+        <v>238</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="60">
       <c r="A76" s="37">
         <v>72</v>
       </c>
-      <c r="B76" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>554</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>209</v>
+      <c r="B76" s="37"/>
+      <c r="C76" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>513</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="G76" s="20" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="47.25">
+        <v>44</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="30">
       <c r="A77" s="37">
         <v>73</v>
       </c>
-      <c r="B77" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>555</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>210</v>
+      <c r="B77" s="37"/>
+      <c r="C77" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="G77" s="20" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="47.25">
+        <v>163</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="30">
       <c r="A78" s="37">
         <v>74</v>
       </c>
-      <c r="B78" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>556</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>211</v>
+      <c r="B78" s="37"/>
+      <c r="C78" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="G78" s="20" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="94.5">
+        <v>165</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H78" s="19" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="75">
       <c r="A79" s="37">
         <v>75</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>557</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>222</v>
+      <c r="B79" s="37"/>
+      <c r="C79" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="G79" s="20" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="63">
+        <v>208</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="45">
       <c r="A80" s="37">
         <v>76</v>
       </c>
-      <c r="B80" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>558</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>224</v>
+      <c r="B80" s="37">
+        <v>2</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="G80" s="20" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="31.5">
+        <v>46</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H80" s="19" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="30">
       <c r="A81" s="37">
         <v>77</v>
       </c>
-      <c r="B81" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>559</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>227</v>
+      <c r="B81" s="37">
+        <v>32</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>645</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G81" s="19" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="94.5">
+        <v>511</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="H81" s="19" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="60">
       <c r="A82" s="37">
         <v>78</v>
       </c>
-      <c r="B82" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>560</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="B82" s="37">
+        <v>139</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="E82" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="E82" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="G82" s="12" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="F82" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="37">
         <v>79</v>
       </c>
-      <c r="B83" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>561</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="G83" s="12" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="B83" s="37">
+        <v>181</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>929</v>
+      </c>
+      <c r="E83" s="38" t="s">
+        <v>912</v>
+      </c>
+      <c r="F83" s="38" t="s">
+        <v>915</v>
+      </c>
+      <c r="G83" s="38" t="s">
+        <v>916</v>
+      </c>
+      <c r="H83" s="19" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="37">
         <v>80</v>
       </c>
-      <c r="B84" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>562</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="G84" s="12" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="63">
+      <c r="B84" s="37">
+        <v>153</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="45">
       <c r="A85" s="37">
         <v>81</v>
       </c>
-      <c r="B85" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>563</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>451</v>
+      <c r="B85" s="37">
+        <v>156</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>520</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>238</v>
+        <v>499</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G85" s="12" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>467</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="37">
         <v>82</v>
       </c>
-      <c r="B86" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>564</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="G86" s="20" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="31.5">
+      <c r="B86" s="37">
+        <v>182</v>
+      </c>
+      <c r="C86" s="46" t="s">
+        <v>909</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>930</v>
+      </c>
+      <c r="E86" s="38" t="s">
+        <v>912</v>
+      </c>
+      <c r="F86" s="38" t="s">
+        <v>917</v>
+      </c>
+      <c r="G86" s="38" t="s">
+        <v>918</v>
+      </c>
+      <c r="H86" s="19" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="30">
       <c r="A87" s="37">
         <v>83</v>
       </c>
-      <c r="B87" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>565</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="G87" s="19" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="78.75">
+      <c r="B87" s="37">
+        <v>180</v>
+      </c>
+      <c r="C87" s="46" t="s">
+        <v>907</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>928</v>
+      </c>
+      <c r="E87" s="38" t="s">
+        <v>912</v>
+      </c>
+      <c r="F87" s="38" t="s">
+        <v>914</v>
+      </c>
+      <c r="G87" s="38" t="s">
+        <v>934</v>
+      </c>
+      <c r="H87" s="19" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="45">
       <c r="A88" s="37">
         <v>84</v>
       </c>
-      <c r="B88" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>566</v>
-      </c>
-      <c r="D88" s="1" t="s">
+      <c r="B88" s="37">
+        <v>140</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="E88" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="E88" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G88" s="19" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="47.25">
+      <c r="F88" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="H88" s="19" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="30">
       <c r="A89" s="37">
         <v>85</v>
       </c>
-      <c r="B89" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>567</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>451</v>
+      <c r="B89" s="37">
+        <v>157</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>521</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>249</v>
+        <v>499</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="G89" s="20" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="94.5">
+        <v>469</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="75">
       <c r="A90" s="37">
         <v>86</v>
       </c>
-      <c r="B90" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>568</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="G90" s="20" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="B90" s="37">
+        <v>145</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="E90" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="37">
         <v>87</v>
       </c>
-      <c r="B91" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>569</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>254</v>
+      <c r="B91" s="37">
+        <v>61</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="G91" s="12" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="47.25">
+        <v>167</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H91" s="19" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="30">
       <c r="A92" s="37">
         <v>88</v>
       </c>
-      <c r="B92" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>257</v>
+      <c r="B92" s="37">
+        <v>45</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G92" s="12" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="47.25">
+        <v>133</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H92" s="19" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="30">
       <c r="A93" s="37">
         <v>89</v>
       </c>
-      <c r="B93" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>571</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="G93" s="20" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="31.5">
+      <c r="B93" s="37"/>
+      <c r="C93" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>931</v>
+      </c>
+      <c r="E93" s="38" t="s">
+        <v>912</v>
+      </c>
+      <c r="F93" s="38" t="s">
+        <v>919</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="H93" s="19" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="30">
       <c r="A94" s="37">
         <v>90</v>
       </c>
-      <c r="B94" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>263</v>
+      <c r="B94" s="37">
+        <v>9</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>595</v>
+      </c>
+      <c r="E94" s="34" t="s">
+        <v>382</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="G94" s="20" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="31.5">
+        <v>48</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H94" s="19" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="30">
       <c r="A95" s="37">
         <v>91</v>
       </c>
-      <c r="B95" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>573</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>266</v>
+      <c r="B95" s="37">
+        <v>41</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G95" s="20" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="47.25">
+        <v>121</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H95" s="19" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="45">
       <c r="A96" s="37">
         <v>92</v>
       </c>
-      <c r="B96" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>574</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>269</v>
+      <c r="B96" s="37">
+        <v>42</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="G96" s="20" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>124</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H96" s="19" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="37">
         <v>93</v>
       </c>
-      <c r="B97" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>575</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>272</v>
+      <c r="B97" s="37">
+        <v>40</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>642</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G97" s="12" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="47.25">
+        <v>118</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H97" s="19" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="30">
       <c r="A98" s="37">
         <v>94</v>
       </c>
-      <c r="B98" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>275</v>
+      <c r="B98" s="37">
+        <v>39</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="31.5">
+        <v>115</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H98" s="19" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="30">
       <c r="A99" s="37">
         <v>95</v>
       </c>
-      <c r="B99" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>577</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>277</v>
+      <c r="B99" s="37"/>
+      <c r="C99" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="G99" s="20" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="63">
+        <v>400</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="45">
       <c r="A100" s="37">
         <v>96</v>
       </c>
-      <c r="B100" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>578</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="G100" s="20" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="B100" s="37"/>
+      <c r="C100" s="50" t="s">
+        <v>943</v>
+      </c>
+      <c r="D100" s="48" t="s">
+        <v>971</v>
+      </c>
+      <c r="E100" s="38" t="s">
+        <v>969</v>
+      </c>
+      <c r="F100" s="51" t="s">
+        <v>953</v>
+      </c>
+      <c r="G100" s="52" t="s">
+        <v>954</v>
+      </c>
+      <c r="H100" s="49" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="37">
         <v>97</v>
       </c>
-      <c r="B101" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>579</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>282</v>
+      <c r="B101" s="37">
+        <v>13</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="G101" s="12" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="173.25">
+        <v>50</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H101" s="19" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="150">
       <c r="A102" s="37">
         <v>98</v>
       </c>
-      <c r="B102" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>284</v>
+      <c r="B102" s="37">
+        <v>14</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="G102" s="20" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="47.25">
+        <v>52</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H102" s="19" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="45">
       <c r="A103" s="37">
         <v>99</v>
       </c>
-      <c r="B103" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>287</v>
+      <c r="B103" s="37"/>
+      <c r="C103" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="G103" s="12" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="94.5">
+        <v>202</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H103" s="19" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="60">
       <c r="A104" s="37">
         <v>100</v>
       </c>
-      <c r="B104" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>582</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>289</v>
+      <c r="B104" s="37">
+        <v>74</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="E104" s="34" t="s">
+        <v>383</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="G104" s="20" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="47.25">
+        <v>6</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H104" s="19" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="30">
       <c r="A105" s="37">
         <v>101</v>
       </c>
-      <c r="B105" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>583</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>292</v>
+      <c r="B105" s="37"/>
+      <c r="C105" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="G105" s="12" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="94.5">
+        <v>54</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H105" s="19" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="60">
       <c r="A106" s="37">
         <v>102</v>
       </c>
-      <c r="B106" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="C106" s="20" t="s">
-        <v>584</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>294</v>
+      <c r="B106" s="37">
+        <v>101</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="G106" s="12" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="47.25">
+        <v>224</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H106" s="20" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="45">
       <c r="A107" s="37">
         <v>103</v>
       </c>
-      <c r="B107" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>585</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>297</v>
+      <c r="B107" s="37">
+        <v>62</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="G107" s="12" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>170</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H107" s="19" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="37">
         <v>104</v>
       </c>
-      <c r="B108" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="G108" s="12" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="78.75">
+      <c r="B108" s="37"/>
+      <c r="C108" s="50" t="s">
+        <v>950</v>
+      </c>
+      <c r="D108" s="48" t="s">
+        <v>978</v>
+      </c>
+      <c r="E108" s="38" t="s">
+        <v>969</v>
+      </c>
+      <c r="F108" s="47" t="s">
+        <v>967</v>
+      </c>
+      <c r="G108" s="53" t="s">
+        <v>968</v>
+      </c>
+      <c r="H108" s="49" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="60">
       <c r="A109" s="37">
         <v>105</v>
       </c>
-      <c r="B109" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>587</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>302</v>
+      <c r="B109" s="37">
+        <v>166</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D109" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="G109" s="12" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="47.25">
+        <v>280</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="H109" s="20" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="45">
       <c r="A110" s="37">
         <v>106</v>
       </c>
-      <c r="B110" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>588</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="G110" s="12" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="126">
+      <c r="B110" s="37"/>
+      <c r="C110" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="E110" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="105">
       <c r="A111" s="37">
         <v>107</v>
       </c>
-      <c r="B111" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="C111" s="20" t="s">
-        <v>589</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>306</v>
+      <c r="B111" s="37"/>
+      <c r="C111" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="E111" s="34" t="s">
+        <v>389</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="G111" s="12" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="31.5">
+        <v>78</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H111" s="19" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="30">
       <c r="A112" s="37">
         <v>108</v>
       </c>
-      <c r="B112" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>309</v>
+      <c r="B112" s="37"/>
+      <c r="C112" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="G112" s="20" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="110.25">
+        <v>206</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="75">
       <c r="A113" s="37">
         <v>109</v>
       </c>
-      <c r="B113" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>591</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>311</v>
+      <c r="B113" s="37">
+        <v>167</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D113" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="G113" s="20" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="31.5">
+        <v>263</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H113" s="20" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="30">
       <c r="A114" s="37">
         <v>110</v>
       </c>
-      <c r="B114" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="C114" s="20" t="s">
-        <v>592</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>314</v>
+      <c r="B114" s="37"/>
+      <c r="C114" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D114" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="G114" s="20" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="63">
+        <v>240</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="H114" s="20" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="45">
       <c r="A115" s="37">
         <v>111</v>
       </c>
-      <c r="B115" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="C115" s="20" t="s">
-        <v>593</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>317</v>
+      <c r="B115" s="37">
+        <v>106</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D115" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="G115" s="12" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="31.5">
+        <v>243</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="H115" s="19" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="30">
       <c r="A116" s="37">
         <v>112</v>
       </c>
-      <c r="B116" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="C116" s="19" t="s">
-        <v>594</v>
-      </c>
-      <c r="D116" s="1" t="s">
+      <c r="B116" s="37"/>
+      <c r="C116" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="E116" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="E116" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="F116" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="37">
         <v>113</v>
       </c>
-      <c r="B117" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>595</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="47.25">
+      <c r="B117" s="37"/>
+      <c r="C117" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="E117" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="G117" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="H117" s="20" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="30">
       <c r="A118" s="37">
         <v>114</v>
       </c>
-      <c r="B118" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>596</v>
-      </c>
-      <c r="D118" s="34" t="s">
-        <v>382</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G118" s="19" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="110.25">
+      <c r="B118" s="37"/>
+      <c r="C118" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="E118" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="G118" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="H118" s="20" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="90">
       <c r="A119" s="37">
         <v>115</v>
       </c>
-      <c r="B119" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="C119" s="20" t="s">
-        <v>597</v>
-      </c>
-      <c r="D119" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G119" s="20" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="94.5">
+      <c r="B119" s="37">
+        <v>191</v>
+      </c>
+      <c r="C119" s="50" t="s">
+        <v>946</v>
+      </c>
+      <c r="D119" s="48" t="s">
+        <v>974</v>
+      </c>
+      <c r="E119" s="38" t="s">
+        <v>969</v>
+      </c>
+      <c r="F119" s="51" t="s">
+        <v>959</v>
+      </c>
+      <c r="G119" s="52" t="s">
+        <v>960</v>
+      </c>
+      <c r="H119" s="49" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="90">
       <c r="A120" s="37">
         <v>116</v>
       </c>
-      <c r="B120" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="C120" s="20" t="s">
-        <v>598</v>
-      </c>
-      <c r="D120" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>20</v>
+      <c r="B120" s="37">
+        <v>33</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D120" s="20" t="s">
+        <v>646</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" s="20" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="47.25">
+        <v>100</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="H120" s="19" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="30">
       <c r="A121" s="37">
         <v>117</v>
       </c>
-      <c r="B121" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>599</v>
-      </c>
-      <c r="D121" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G121" s="19" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="47.25">
+      <c r="B121" s="37"/>
+      <c r="C121" s="50" t="s">
+        <v>944</v>
+      </c>
+      <c r="D121" s="48" t="s">
+        <v>972</v>
+      </c>
+      <c r="E121" s="38" t="s">
+        <v>969</v>
+      </c>
+      <c r="F121" s="51" t="s">
+        <v>955</v>
+      </c>
+      <c r="G121" s="52" t="s">
+        <v>956</v>
+      </c>
+      <c r="H121" s="49" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="30">
       <c r="A122" s="37">
         <v>118</v>
       </c>
-      <c r="B122" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>600</v>
-      </c>
-      <c r="D122" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G122" s="19" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="63">
+      <c r="B122" s="37"/>
+      <c r="C122" s="50" t="s">
+        <v>949</v>
+      </c>
+      <c r="D122" s="48" t="s">
+        <v>977</v>
+      </c>
+      <c r="E122" s="38" t="s">
+        <v>969</v>
+      </c>
+      <c r="F122" s="51" t="s">
+        <v>965</v>
+      </c>
+      <c r="G122" s="52" t="s">
+        <v>966</v>
+      </c>
+      <c r="H122" s="49" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="45">
       <c r="A123" s="37">
         <v>119</v>
       </c>
-      <c r="B123" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>601</v>
-      </c>
-      <c r="D123" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>14</v>
+      <c r="B123" s="37">
+        <v>107</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D123" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G123" s="19" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="47.25">
+        <v>309</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="H123" s="20" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="45">
       <c r="A124" s="37">
         <v>120</v>
       </c>
-      <c r="B124" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>602</v>
-      </c>
-      <c r="D124" s="34" t="s">
-        <v>383</v>
+      <c r="B124" s="37"/>
+      <c r="C124" s="8" t="s">
+        <v>990</v>
+      </c>
+      <c r="D124" s="20" t="s">
+        <v>1015</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>16</v>
+        <v>993</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G124" s="19" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="63">
+        <v>1000</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H124" s="19" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="60">
       <c r="A125" s="37">
         <v>121</v>
       </c>
-      <c r="B125" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>603</v>
-      </c>
-      <c r="D125" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>24</v>
+      <c r="B125" s="37"/>
+      <c r="C125" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D125" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G125" s="19" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="47.25">
+        <v>173</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H125" s="19" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="30">
       <c r="A126" s="37">
         <v>122</v>
       </c>
-      <c r="B126" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>604</v>
-      </c>
-      <c r="D126" s="34" t="s">
+      <c r="B126" s="37"/>
+      <c r="C126" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="E126" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="E126" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="F126" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="78.75">
+        <v>9</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H126" s="19" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="75">
       <c r="A127" s="37">
         <v>123</v>
       </c>
-      <c r="B127" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>605</v>
-      </c>
-      <c r="D127" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>23</v>
+      <c r="B127" s="37"/>
+      <c r="C127" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D127" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G127" s="19" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="78.75">
+        <v>266</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="H127" s="20" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="60">
       <c r="A128" s="37">
         <v>124</v>
       </c>
-      <c r="B128" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>606</v>
-      </c>
-      <c r="D128" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>6</v>
+      <c r="B128" s="37"/>
+      <c r="C128" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D128" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G128" s="19" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="78.75">
+        <v>203</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H128" s="20" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="60">
       <c r="A129" s="37">
         <v>125</v>
       </c>
-      <c r="B129" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>607</v>
-      </c>
-      <c r="D129" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>9</v>
+      <c r="B129" s="37"/>
+      <c r="C129" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D129" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="19" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="31.5">
+        <v>205</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="H129" s="20" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="30">
       <c r="A130" s="37">
         <v>126</v>
       </c>
-      <c r="B130" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" s="20" t="s">
-        <v>608</v>
-      </c>
-      <c r="D130" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>12</v>
+      <c r="B130" s="37"/>
+      <c r="C130" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="D130" s="19" t="s">
+        <v>675</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" s="19" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="47.25">
+        <v>406</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H130" s="19" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="30">
       <c r="A131" s="37">
         <v>127</v>
       </c>
-      <c r="B131" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>609</v>
-      </c>
-      <c r="D131" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>19</v>
+      <c r="B131" s="37"/>
+      <c r="C131" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D131" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G131" s="19" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="31.5">
+        <v>502</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="H131" s="12" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="30">
       <c r="A132" s="37">
         <v>128</v>
       </c>
-      <c r="B132" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>610</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>153</v>
+      <c r="B132" s="37">
+        <v>50</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D132" s="19" t="s">
+        <v>634</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G132" s="19" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="78.75">
+        <v>143</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H132" s="19" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="60">
       <c r="A133" s="37">
         <v>129</v>
       </c>
-      <c r="B133" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="C133" s="20" t="s">
-        <v>611</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G133" s="20" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="63">
+      <c r="B133" s="37"/>
+      <c r="C133" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="E133" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="H133" s="19" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="45">
       <c r="A134" s="37">
         <v>130</v>
       </c>
-      <c r="B134" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>612</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G134" s="20" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="31.5">
+      <c r="B134" s="37">
+        <v>190</v>
+      </c>
+      <c r="C134" s="50" t="s">
+        <v>945</v>
+      </c>
+      <c r="D134" s="48" t="s">
+        <v>973</v>
+      </c>
+      <c r="E134" s="38" t="s">
+        <v>969</v>
+      </c>
+      <c r="F134" s="51" t="s">
+        <v>957</v>
+      </c>
+      <c r="G134" s="52" t="s">
+        <v>958</v>
+      </c>
+      <c r="H134" s="49" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="30">
       <c r="A135" s="37">
         <v>131</v>
       </c>
-      <c r="B135" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="C135" s="20" t="s">
-        <v>613</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>384</v>
+      <c r="B135" s="37">
+        <v>108</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D135" s="20" t="s">
+        <v>573</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G135" s="20" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="393.75">
+        <v>450</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H135" s="20" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="330">
       <c r="A136" s="37">
         <v>132</v>
       </c>
-      <c r="B136" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>614</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E136" s="8" t="s">
+      <c r="B136" s="37">
         <v>25</v>
       </c>
+      <c r="C136" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D136" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="E136" s="34" t="s">
+        <v>389</v>
+      </c>
       <c r="F136" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G136" s="12" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="47.25">
+        <v>81</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H136" s="19" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="45">
       <c r="A137" s="37">
         <v>133</v>
       </c>
-      <c r="B137" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="C137" s="19" t="s">
-        <v>615</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>161</v>
+      <c r="B137" s="37">
+        <v>27</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="D137" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="E137" s="34" t="s">
+        <v>389</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G137" s="20" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="63">
+        <v>83</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H137" s="19" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="45">
       <c r="A138" s="37">
         <v>134</v>
       </c>
-      <c r="B138" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="C138" s="19" t="s">
-        <v>616</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>163</v>
+      <c r="B138" s="37">
+        <v>109</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="D138" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G138" s="19" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="63">
+        <v>282</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="H138" s="12" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="60">
       <c r="A139" s="37">
         <v>135</v>
       </c>
-      <c r="B139" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="C139" s="19" t="s">
-        <v>617</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F139" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G139" s="19" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="63">
+      <c r="B139" s="37">
+        <v>150</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="D139" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="E139" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="60">
       <c r="A140" s="37">
         <v>136</v>
       </c>
-      <c r="B140" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="C140" s="19" t="s">
-        <v>618</v>
-      </c>
-      <c r="D140" s="1" t="s">
+      <c r="B140" s="37">
+        <v>64</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="D140" s="19" t="s">
+        <v>620</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E140" s="8" t="s">
-        <v>167</v>
-      </c>
       <c r="F140" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G140" s="19" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="31.5">
+        <v>175</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H140" s="19" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="37">
         <v>137</v>
       </c>
-      <c r="B141" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C141" s="19" t="s">
-        <v>619</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>170</v>
+      <c r="B141" s="37">
+        <v>110</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D141" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G141" s="19" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="47.25">
+        <v>246</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="H141" s="19" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="30">
       <c r="A142" s="37">
         <v>138</v>
       </c>
-      <c r="B142" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C142" s="20" t="s">
-        <v>620</v>
-      </c>
-      <c r="D142" s="1" t="s">
+      <c r="B142" s="37">
+        <v>65</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D142" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E142" s="8" t="s">
-        <v>173</v>
-      </c>
       <c r="F142" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G142" s="19" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="31.5">
+        <v>178</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H142" s="19" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="30">
       <c r="A143" s="37">
         <v>139</v>
       </c>
-      <c r="B143" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="C143" s="19" t="s">
-        <v>621</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>175</v>
+      <c r="B143" s="37">
+        <v>12</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D143" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G143" s="19" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="47.25">
+        <v>56</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H143" s="19" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="45">
       <c r="A144" s="37">
         <v>140</v>
       </c>
-      <c r="B144" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C144" s="19" t="s">
-        <v>622</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>178</v>
+      <c r="B144" s="37">
+        <v>111</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D144" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G144" s="19" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="31.5">
+        <v>251</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="H144" s="20" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="30">
       <c r="A145" s="37">
         <v>141</v>
       </c>
-      <c r="B145" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C145" s="20" t="s">
-        <v>623</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>181</v>
+      <c r="B145" s="37">
+        <v>104</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D145" s="19" t="s">
+        <v>593</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G145" s="19" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="47.25">
+        <v>319</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="45">
       <c r="A146" s="37">
         <v>142</v>
       </c>
-      <c r="B146" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="C146" s="19" t="s">
-        <v>624</v>
-      </c>
-      <c r="D146" s="1" t="s">
+      <c r="B146" s="37">
+        <v>66</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D146" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E146" s="8" t="s">
-        <v>183</v>
-      </c>
       <c r="F146" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G146" s="19" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>181</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H146" s="19" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="37">
         <v>143</v>
       </c>
-      <c r="B147" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C147" s="20" t="s">
-        <v>625</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>186</v>
+      <c r="B147" s="37">
+        <v>26</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D147" s="20" t="s">
+        <v>657</v>
+      </c>
+      <c r="E147" s="34" t="s">
+        <v>389</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G147" s="19" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="47.25">
+        <v>86</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H147" s="19" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="30">
       <c r="A148" s="37">
         <v>144</v>
       </c>
-      <c r="B148" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C148" s="19" t="s">
-        <v>626</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>189</v>
+      <c r="B148" s="37">
+        <v>113</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D148" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="G148" s="19" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="31.5">
+        <v>254</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="H148" s="12" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="30">
       <c r="A149" s="37">
         <v>145</v>
       </c>
-      <c r="B149" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C149" s="19" t="s">
-        <v>627</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E149" s="8" t="s">
-        <v>192</v>
+      <c r="B149" s="37">
+        <v>114</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D149" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G149" s="19" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="63">
+        <v>300</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H149" s="12" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="45">
       <c r="A150" s="37">
         <v>146</v>
       </c>
-      <c r="B150" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="C150" s="19" t="s">
-        <v>628</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>194</v>
+      <c r="B150" s="37">
+        <v>76</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" s="20" t="s">
+        <v>607</v>
+      </c>
+      <c r="E150" s="34" t="s">
+        <v>383</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="G150" s="19" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="409.5">
+        <v>12</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H150" s="19" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="360">
       <c r="A151" s="37">
         <v>147</v>
       </c>
-      <c r="B151" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="C151" s="19" t="s">
-        <v>629</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>25</v>
+      <c r="B151" s="37"/>
+      <c r="C151" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="D151" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G151" s="12" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="47.25">
+        <v>209</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H151" s="20" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="30">
       <c r="A152" s="37">
         <v>148</v>
       </c>
-      <c r="B152" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="C152" s="19" t="s">
-        <v>630</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E152" s="8" t="s">
-        <v>147</v>
+      <c r="B152" s="37"/>
+      <c r="C152" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D152" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G152" s="19" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="31.5">
+        <v>302</v>
+      </c>
+      <c r="G152" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="H152" s="12" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="30">
       <c r="A153" s="37">
         <v>149</v>
       </c>
-      <c r="B153" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C153" s="20" t="s">
-        <v>631</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E153" s="8" t="s">
-        <v>150</v>
+      <c r="B153" s="37"/>
+      <c r="C153" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="E153" s="34" t="s">
+        <v>383</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G153" s="19" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="47.25">
+        <v>19</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H153" s="19" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="30">
       <c r="A154" s="37">
         <v>150</v>
       </c>
-      <c r="B154" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>140</v>
+      <c r="B154" s="37"/>
+      <c r="C154" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="D154" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G154" s="19" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="47.25">
+        <v>183</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H154" s="19" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="30">
       <c r="A155" s="37">
         <v>151</v>
       </c>
-      <c r="B155" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="C155" s="20" t="s">
-        <v>633</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E155" s="8" t="s">
-        <v>145</v>
+      <c r="B155" s="37"/>
+      <c r="C155" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="D155" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G155" s="19" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="31.5">
+        <v>222</v>
+      </c>
+      <c r="G155" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H155" s="20" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="30">
       <c r="A156" s="37">
         <v>152</v>
       </c>
-      <c r="B156" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="C156" s="19" t="s">
-        <v>634</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>385</v>
+      <c r="B156" s="37"/>
+      <c r="C156" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="D156" s="20" t="s">
+        <v>860</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F156" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G156" s="19" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="31.5">
+        <v>867</v>
+      </c>
+      <c r="F156" s="38" t="s">
+        <v>853</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="H156" s="19" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="30">
       <c r="A157" s="37">
         <v>153</v>
       </c>
-      <c r="B157" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C157" s="19" t="s">
-        <v>635</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E157" s="8" t="s">
-        <v>143</v>
+      <c r="B157" s="37"/>
+      <c r="C157" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D157" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G157" s="19" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="31.5">
+        <v>232</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H157" s="12" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="30">
       <c r="A158" s="37">
         <v>154</v>
       </c>
-      <c r="B158" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C158" s="19" t="s">
-        <v>636</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>385</v>
+      <c r="B158" s="37"/>
+      <c r="C158" s="12" t="s">
+        <v>891</v>
+      </c>
+      <c r="D158" s="41" t="s">
+        <v>885</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G158" s="19" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>882</v>
+      </c>
+      <c r="F158" s="44" t="s">
+        <v>887</v>
+      </c>
+      <c r="G158" s="43" t="s">
+        <v>886</v>
+      </c>
+      <c r="H158" s="42" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="37">
         <v>155</v>
       </c>
-      <c r="B159" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C159" s="19" t="s">
-        <v>637</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E159" s="8" t="s">
-        <v>130</v>
+      <c r="B159" s="37"/>
+      <c r="C159" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="D159" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G159" s="19" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>25</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="37">
         <v>156</v>
       </c>
-      <c r="B160" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C160" s="19" t="s">
-        <v>638</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>127</v>
+      <c r="B160" s="37"/>
+      <c r="C160" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="D160" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G160" s="19" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="78.75">
+        <v>292</v>
+      </c>
+      <c r="G160" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="H160" s="12" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="75">
       <c r="A161" s="37">
         <v>157</v>
       </c>
-      <c r="B161" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="C161" s="20" t="s">
-        <v>639</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>404</v>
+      <c r="B161" s="37"/>
+      <c r="C161" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="D161" s="20" t="s">
+        <v>970</v>
+      </c>
+      <c r="E161" s="38" t="s">
+        <v>969</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="G161" s="19" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="78.75">
+        <v>951</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>952</v>
+      </c>
+      <c r="H161" s="19" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="45">
       <c r="A162" s="37">
         <v>158</v>
       </c>
-      <c r="B162" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C162" s="19" t="s">
-        <v>640</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E162" s="8" t="s">
-        <v>133</v>
+      <c r="B162" s="37">
+        <v>112</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="D162" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G162" s="19" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="47.25">
+        <v>311</v>
+      </c>
+      <c r="G162" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="H162" s="20" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="30">
       <c r="A163" s="37">
         <v>159</v>
       </c>
-      <c r="B163" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C163" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E163" s="8" t="s">
-        <v>121</v>
+      <c r="B163" s="37"/>
+      <c r="C163" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="D163" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G163" s="19" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="47.25">
+        <v>289</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H163" s="20" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="30">
       <c r="A164" s="37">
         <v>160</v>
       </c>
-      <c r="B164" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C164" s="19" t="s">
-        <v>642</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>386</v>
+      <c r="B164" s="37"/>
+      <c r="C164" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="D164" s="41" t="s">
+        <v>895</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F164" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G164" s="19" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="31.5">
+        <v>882</v>
+      </c>
+      <c r="F164" s="44" t="s">
+        <v>896</v>
+      </c>
+      <c r="G164" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="H164" s="19" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="37">
         <v>161</v>
       </c>
-      <c r="B165" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C165" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E165" s="8" t="s">
-        <v>118</v>
+      <c r="B165" s="37"/>
+      <c r="C165" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D165" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G165" s="19" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="31.5">
+        <v>204</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H165" s="20" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="30">
       <c r="A166" s="37">
         <v>162</v>
       </c>
-      <c r="B166" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C166" s="19" t="s">
-        <v>644</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E166" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F166" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G166" s="19" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="31.5">
+      <c r="B166" s="37"/>
+      <c r="C166" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="D166" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="E166" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="F166" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="G166" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="H166" s="12" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="30">
       <c r="A167" s="37">
         <v>163</v>
       </c>
-      <c r="B167" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C167" s="19" t="s">
-        <v>645</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E167" s="8" t="s">
-        <v>108</v>
+      <c r="B167" s="37">
+        <v>115</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D167" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="G167" s="19" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="63">
+        <v>235</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H167" s="12" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="45">
       <c r="A168" s="37">
         <v>164</v>
       </c>
-      <c r="B168" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C168" s="19" t="s">
-        <v>646</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E168" s="8" t="s">
-        <v>512</v>
+      <c r="B168" s="37">
+        <v>70</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D168" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="G168" s="19" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="63">
+        <v>186</v>
+      </c>
+      <c r="G168" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H168" s="19" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="45">
       <c r="A169" s="37">
         <v>165</v>
       </c>
-      <c r="B169" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C169" s="20" t="s">
-        <v>647</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>387</v>
+      <c r="B169" s="37"/>
+      <c r="C169" s="12" t="s">
+        <v>903</v>
+      </c>
+      <c r="D169" s="41" t="s">
+        <v>900</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F169" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="G169" s="19" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="63">
+        <v>901</v>
+      </c>
+      <c r="F169" s="32" t="s">
+        <v>902</v>
+      </c>
+      <c r="G169" s="32" t="s">
+        <v>902</v>
+      </c>
+      <c r="H169" s="42" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="45">
       <c r="A170" s="37">
         <v>166</v>
       </c>
-      <c r="B170" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C170" s="19" t="s">
-        <v>648</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>387</v>
+      <c r="B170" s="37"/>
+      <c r="C170" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="D170" s="20" t="s">
+        <v>861</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F170" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G170" s="19" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="78.75">
+        <v>846</v>
+      </c>
+      <c r="F170" s="38" t="s">
+        <v>855</v>
+      </c>
+      <c r="G170" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="H170" s="19" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="60">
       <c r="A171" s="37">
         <v>167</v>
       </c>
-      <c r="B171" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C171" s="20" t="s">
-        <v>649</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>387</v>
+      <c r="B171" s="37"/>
+      <c r="C171" s="8" t="s">
+        <v>991</v>
+      </c>
+      <c r="D171" s="20" t="s">
+        <v>1010</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>105</v>
+        <v>993</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G171" s="19" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="31.5">
+        <v>1002</v>
+      </c>
+      <c r="G171" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H171" s="19" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="30">
       <c r="A172" s="37">
         <v>168</v>
       </c>
-      <c r="B172" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C172" s="19" t="s">
-        <v>650</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E172" s="8" t="s">
-        <v>113</v>
+      <c r="B172" s="37"/>
+      <c r="C172" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D172" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="G172" s="19" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="63">
+        <v>189</v>
+      </c>
+      <c r="G172" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H172" s="19" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="45">
       <c r="A173" s="37">
         <v>169</v>
       </c>
-      <c r="B173" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C173" s="19" t="s">
-        <v>651</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E173" s="8" t="s">
-        <v>102</v>
+      <c r="B173" s="37"/>
+      <c r="C173" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="D173" s="19" t="s">
+        <v>658</v>
+      </c>
+      <c r="E173" s="34" t="s">
+        <v>389</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G173" s="19" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="47.25">
+        <v>88</v>
+      </c>
+      <c r="G173" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H173" s="19" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="30">
       <c r="A174" s="37">
         <v>170</v>
       </c>
-      <c r="B174" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C174" s="19" t="s">
-        <v>652</v>
-      </c>
-      <c r="D174" s="1" t="s">
+      <c r="B174" s="37">
+        <v>36</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D174" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="E174" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E174" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="F174" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G174" s="19" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="63">
+        <v>110</v>
+      </c>
+      <c r="G174" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H174" s="19" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="45">
       <c r="A175" s="37">
         <v>171</v>
       </c>
-      <c r="B175" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C175" s="19" t="s">
-        <v>653</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E175" s="8" t="s">
-        <v>93</v>
+      <c r="B175" s="37">
+        <v>38</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D175" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G175" s="19" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="31.5">
+        <v>105</v>
+      </c>
+      <c r="G175" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H175" s="19" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="30">
       <c r="A176" s="37">
         <v>172</v>
       </c>
-      <c r="B176" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C176" s="19" t="s">
-        <v>654</v>
-      </c>
-      <c r="D176" s="34" t="s">
-        <v>389</v>
-      </c>
-      <c r="E176" s="8" t="s">
-        <v>62</v>
+      <c r="B176" s="37"/>
+      <c r="C176" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D176" s="19" t="s">
+        <v>626</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G176" s="19" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="47.25">
+        <v>192</v>
+      </c>
+      <c r="G176" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="H176" s="19" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="45">
       <c r="A177" s="37">
         <v>173</v>
       </c>
-      <c r="B177" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="C177" s="19" t="s">
-        <v>655</v>
-      </c>
-      <c r="D177" s="34" t="s">
-        <v>389</v>
+      <c r="B177" s="37"/>
+      <c r="C177" s="8" t="s">
+        <v>992</v>
+      </c>
+      <c r="D177" s="20" t="s">
+        <v>1011</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>78</v>
+        <v>993</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G177" s="19" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="47.25">
+        <v>1004</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H177" s="19" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="30">
       <c r="A178" s="37">
         <v>174</v>
       </c>
-      <c r="B178" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C178" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="D178" s="34" t="s">
-        <v>389</v>
-      </c>
-      <c r="E178" s="8" t="s">
-        <v>81</v>
+      <c r="B178" s="37">
+        <v>116</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D178" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G178" s="19" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="47.25">
+        <v>272</v>
+      </c>
+      <c r="G178" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H178" s="12" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="45">
       <c r="A179" s="37">
         <v>175</v>
       </c>
-      <c r="B179" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="C179" s="20" t="s">
-        <v>657</v>
-      </c>
-      <c r="D179" s="34" t="s">
-        <v>389</v>
+      <c r="B179" s="37">
+        <v>161</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="D179" s="18" t="s">
+        <v>519</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>83</v>
+        <v>499</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G179" s="19" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="31.5">
+        <v>25</v>
+      </c>
+      <c r="G179" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H179" s="19" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="30">
       <c r="A180" s="37">
         <v>176</v>
       </c>
-      <c r="B180" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C180" s="20" t="s">
-        <v>658</v>
-      </c>
-      <c r="D180" s="34" t="s">
-        <v>389</v>
-      </c>
-      <c r="E180" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F180" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G180" s="19" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="78.75">
+      <c r="B180" s="37"/>
+      <c r="C180" s="46" t="s">
+        <v>911</v>
+      </c>
+      <c r="D180" s="20" t="s">
+        <v>932</v>
+      </c>
+      <c r="E180" s="38" t="s">
+        <v>912</v>
+      </c>
+      <c r="F180" s="38" t="s">
+        <v>902</v>
+      </c>
+      <c r="G180" s="38" t="s">
+        <v>902</v>
+      </c>
+      <c r="H180" s="19" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="75">
       <c r="A181" s="37">
         <v>177</v>
       </c>
-      <c r="B181" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="C181" s="19" t="s">
-        <v>659</v>
-      </c>
-      <c r="D181" s="34" t="s">
-        <v>389</v>
-      </c>
-      <c r="E181" s="8" t="s">
-        <v>88</v>
+      <c r="B181" s="37">
+        <v>117</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="D181" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G181" s="19" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="47.25">
+        <v>284</v>
+      </c>
+      <c r="G181" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="H181" s="20" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="30">
       <c r="A182" s="37">
         <v>178</v>
       </c>
-      <c r="B182" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="C182" s="19" t="s">
-        <v>660</v>
-      </c>
-      <c r="D182" s="34" t="s">
-        <v>389</v>
-      </c>
-      <c r="E182" s="8" t="s">
-        <v>90</v>
+      <c r="B182" s="37">
+        <v>118</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="D182" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G182" s="19" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="63">
+        <v>322</v>
+      </c>
+      <c r="G182" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="45">
       <c r="A183" s="37">
         <v>179</v>
       </c>
-      <c r="B183" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C183" s="19" t="s">
-        <v>661</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E183" s="8" t="s">
-        <v>65</v>
+      <c r="B183" s="37">
+        <v>35</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D183" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G183" s="19" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="63">
+        <v>113</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="H183" s="19" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="45">
       <c r="A184" s="37">
         <v>180</v>
       </c>
-      <c r="B184" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C184" s="19" t="s">
-        <v>662</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E184" s="8" t="s">
-        <v>71</v>
+      <c r="B184" s="37">
+        <v>10</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D184" s="20" t="s">
+        <v>677</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G184" s="19" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="63">
+        <v>58</v>
+      </c>
+      <c r="G184" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="H184" s="19" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="45">
       <c r="A185" s="37">
         <v>181</v>
       </c>
-      <c r="B185" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C185" s="19" t="s">
-        <v>663</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E185" s="8" t="s">
-        <v>74</v>
+      <c r="B185" s="37">
+        <v>154</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="D185" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G185" s="19" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="63">
+        <v>445</v>
+      </c>
+      <c r="G185" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="H185" s="12" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="45">
       <c r="A186" s="37">
         <v>182</v>
       </c>
-      <c r="B186" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="C186" s="19" t="s">
-        <v>664</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E186" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F186" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G186" s="19" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="63">
+      <c r="B186" s="37">
+        <v>155</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="D186" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F186" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="G186" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="H186" s="12" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="45">
       <c r="A187" s="37">
         <v>183</v>
       </c>
-      <c r="B187" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C187" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E187" s="8" t="s">
-        <v>68</v>
+      <c r="B187" s="37">
+        <v>48</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D187" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G187" s="19" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="63">
+        <v>138</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H187" s="19" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="45">
       <c r="A188" s="37">
         <v>184</v>
       </c>
-      <c r="B188" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="C188" s="19" t="s">
-        <v>666</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E188" s="8" t="s">
-        <v>34</v>
+      <c r="B188" s="37">
+        <v>119</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D188" s="20" t="s">
+        <v>591</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G188" s="19" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="31.5">
+        <v>314</v>
+      </c>
+      <c r="G188" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H188" s="20" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="30">
       <c r="A189" s="37">
         <v>185</v>
       </c>
-      <c r="B189" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="C189" s="19" t="s">
-        <v>667</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E189" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F189" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G189" s="19" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="47.25">
+      <c r="B189" s="37"/>
+      <c r="C189" s="50" t="s">
+        <v>948</v>
+      </c>
+      <c r="D189" s="48" t="s">
+        <v>976</v>
+      </c>
+      <c r="E189" s="38" t="s">
+        <v>969</v>
+      </c>
+      <c r="F189" s="47" t="s">
+        <v>963</v>
+      </c>
+      <c r="G189" s="53" t="s">
+        <v>964</v>
+      </c>
+      <c r="H189" s="49" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="30">
       <c r="A190" s="37">
         <v>186</v>
       </c>
-      <c r="B190" s="12" t="s">
-        <v>869</v>
-      </c>
-      <c r="C190" s="19" t="s">
-        <v>668</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E190" s="8" t="s">
-        <v>38</v>
+      <c r="B190" s="37">
+        <v>34</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D190" s="19" t="s">
+        <v>650</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G190" s="19" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="31.5">
+        <v>102</v>
+      </c>
+      <c r="G190" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H190" s="19" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="37">
         <v>187</v>
       </c>
-      <c r="B191" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="C191" s="20" t="s">
-        <v>669</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E191" s="8" t="s">
-        <v>40</v>
+      <c r="B191" s="37">
+        <v>120</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D191" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G191" s="19" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+        <v>275</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="H191" s="12" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="37">
         <v>188</v>
       </c>
-      <c r="B192" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="C192" s="19" t="s">
-        <v>670</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E192" s="8" t="s">
-        <v>42</v>
+      <c r="B192" s="37">
+        <v>121</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D192" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G192" s="19" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="31.5">
+        <v>249</v>
+      </c>
+      <c r="G192" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="H192" s="20" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="30">
       <c r="A193" s="37">
         <v>189</v>
       </c>
-      <c r="B193" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="C193" s="19" t="s">
-        <v>671</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E193" s="8" t="s">
-        <v>44</v>
+      <c r="B193" s="37"/>
+      <c r="C193" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D193" s="19" t="s">
+        <v>651</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G193" s="19" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="31.5">
+        <v>96</v>
+      </c>
+      <c r="G193" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H193" s="19" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="30">
       <c r="A194" s="37">
         <v>190</v>
       </c>
-      <c r="B194" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="C194" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E194" s="8" t="s">
-        <v>46</v>
+      <c r="B194" s="37"/>
+      <c r="C194" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D194" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G194" s="19" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <v>210</v>
+      </c>
+      <c r="G194" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="H194" s="20" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="37">
         <v>191</v>
       </c>
-      <c r="B195" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="C195" s="19" t="s">
-        <v>673</v>
-      </c>
-      <c r="D195" s="1" t="s">
+      <c r="B195" s="37">
+        <v>5</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="D195" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="E195" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E195" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="F195" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G195" s="19" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+        <v>59</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H195" s="19" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="37">
         <v>192</v>
       </c>
-      <c r="B196" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="C196" s="19" t="s">
-        <v>674</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E196" s="8" t="s">
-        <v>52</v>
+      <c r="B196" s="37">
+        <v>103</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D196" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G196" s="19" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <v>306</v>
+      </c>
+      <c r="G196" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="H196" s="12" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="37">
         <v>193</v>
       </c>
-      <c r="B197" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="C197" s="19" t="s">
-        <v>675</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E197" s="8" t="s">
-        <v>54</v>
+      <c r="B197" s="37">
+        <v>71</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="D197" s="19" t="s">
+        <v>627</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G197" s="19" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="78.75">
+        <v>194</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H197" s="19" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="75">
       <c r="A198" s="37">
         <v>194</v>
       </c>
-      <c r="B198" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="C198" s="19" t="s">
-        <v>676</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E198" s="8" t="s">
-        <v>407</v>
+      <c r="B198" s="37">
+        <v>122</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D198" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="G198" s="19" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+        <v>287</v>
+      </c>
+      <c r="G198" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H198" s="12" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="37">
         <v>195</v>
       </c>
-      <c r="B199" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="C199" s="20" t="s">
-        <v>677</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E199" s="8" t="s">
-        <v>56</v>
+      <c r="B199" s="37"/>
+      <c r="C199" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D199" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="E199" s="34" t="s">
+        <v>389</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G199" s="19" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="31.5">
+        <v>90</v>
+      </c>
+      <c r="G199" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H199" s="19" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="30">
       <c r="A200" s="37">
         <v>196</v>
       </c>
-      <c r="B200" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="C200" s="20" t="s">
-        <v>678</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E200" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F200" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="G200" s="19" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+      <c r="B200" s="37"/>
+      <c r="C200" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="D200" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="E200" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="F200" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="G200" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="H200" s="20" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="37">
         <v>197</v>
       </c>
-      <c r="B201" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="C201" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E201" s="8" t="s">
-        <v>59</v>
+      <c r="B201" s="37">
+        <v>28</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D201" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G201" s="19" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+        <v>25</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H201" s="12" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" s="37"/>
-      <c r="B202" s="10"/>
-      <c r="C202" s="18"/>
-      <c r="D202" s="38"/>
+      <c r="B202" s="37"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="18"/>
       <c r="E202" s="38"/>
       <c r="F202" s="38"/>
-      <c r="G202" s="39"/>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="B203" s="40" t="s">
+      <c r="G202" s="38"/>
+      <c r="H202" s="39"/>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="C203" s="40" t="s">
+        <v>829</v>
+      </c>
+      <c r="D203" s="29"/>
+      <c r="H203" s="15"/>
+    </row>
+    <row r="204" spans="1:8" ht="81" customHeight="1">
+      <c r="C204" s="55" t="s">
         <v>830</v>
       </c>
-      <c r="C203" s="29"/>
-      <c r="G203" s="15"/>
-    </row>
-    <row r="204" spans="1:7" ht="81" customHeight="1">
-      <c r="B204" s="56" t="s">
+      <c r="D204" s="55"/>
+      <c r="E204" s="55"/>
+      <c r="F204" s="55"/>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="C205" s="40" t="s">
         <v>831</v>
       </c>
-      <c r="C204" s="56"/>
-      <c r="D204" s="56"/>
-      <c r="E204" s="56"/>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="B205" s="40" t="s">
+    </row>
+    <row r="206" spans="1:8" ht="63" customHeight="1">
+      <c r="C206" s="55" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" ht="63" customHeight="1">
-      <c r="B206" s="56" t="s">
-        <v>833</v>
-      </c>
-      <c r="C206" s="56"/>
-      <c r="D206" s="56"/>
-      <c r="E206" s="56"/>
+      <c r="D206" s="55"/>
+      <c r="E206" s="55"/>
+      <c r="F206" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B204:E204"/>
-    <mergeCell ref="B206:E206"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C204:F204"/>
+    <mergeCell ref="C206:F206"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0.1" footer="0.1"/>
@@ -9244,214 +9673,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:H33"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="16.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="3"/>
+    <col min="2" max="2" width="16.1328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="37" style="3" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="3"/>
-    <col min="7" max="8" width="9.140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="6" width="9.1328125" style="3"/>
+    <col min="7" max="8" width="9.1328125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="1" spans="2:8" ht="13.9" thickBot="1"/>
     <row r="2" spans="2:8" ht="48" customHeight="1" thickBot="1">
       <c r="B2" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>482</v>
-      </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+        <v>454</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>481</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="63" customHeight="1" thickBot="1">
       <c r="B3" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>483</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
+        <v>455</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>482</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="2:8" ht="34.5" customHeight="1" thickBot="1">
       <c r="B4" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>484</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
+        <v>456</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>483</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
     </row>
     <row r="5" spans="2:8" ht="47.25" customHeight="1" thickBot="1">
       <c r="B5" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="58"/>
+    </row>
+    <row r="6" spans="2:8" ht="63.4" thickBot="1">
+      <c r="B6" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C6" s="56" t="s">
         <v>485</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
-    </row>
-    <row r="6" spans="2:8" ht="63.75" thickBot="1">
-      <c r="B6" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>486</v>
-      </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="58"/>
     </row>
     <row r="7" spans="2:8" ht="47.25" customHeight="1" thickBot="1">
       <c r="B7" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>487</v>
-      </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
+        <v>459</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>486</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="2:8" ht="47.25" customHeight="1" thickBot="1">
       <c r="B8" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>488</v>
-      </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="59"/>
+        <v>460</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>487</v>
+      </c>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
     </row>
     <row r="9" spans="2:8" ht="63" customHeight="1" thickBot="1">
       <c r="B9" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>489</v>
-      </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="59"/>
+        <v>461</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>488</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58"/>
     </row>
     <row r="10" spans="2:8" ht="47.25" customHeight="1" thickBot="1">
       <c r="B10" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="C10" s="57" t="s">
+        <v>462</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>489</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58"/>
+    </row>
+    <row r="11" spans="2:8" ht="63" customHeight="1">
+      <c r="B11" s="59" t="s">
         <v>490</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-    </row>
-    <row r="11" spans="2:8" ht="63" customHeight="1">
-      <c r="B11" s="60" t="s">
+      <c r="C11" s="62" t="s">
         <v>491</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="64"/>
+    </row>
+    <row r="12" spans="2:8" ht="47.25" customHeight="1">
+      <c r="B12" s="60"/>
+      <c r="C12" s="65" t="s">
         <v>492</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
-    </row>
-    <row r="12" spans="2:8" ht="47.25" customHeight="1">
-      <c r="B12" s="61"/>
-      <c r="C12" s="66" t="s">
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
+    </row>
+    <row r="13" spans="2:8" ht="63" customHeight="1" thickBot="1">
+      <c r="B13" s="61"/>
+      <c r="C13" s="68" t="s">
         <v>493</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68"/>
-    </row>
-    <row r="13" spans="2:8" ht="63" customHeight="1" thickBot="1">
-      <c r="B13" s="62"/>
-      <c r="C13" s="69" t="s">
-        <v>494</v>
-      </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="71"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
     </row>
     <row r="14" spans="2:8" ht="63" customHeight="1" thickBot="1">
       <c r="B14" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="C14" s="56" t="s">
         <v>516</v>
       </c>
-      <c r="C14" s="57" t="s">
-        <v>517</v>
-      </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58"/>
     </row>
     <row r="15" spans="2:8" ht="47.25" customHeight="1" thickBot="1">
       <c r="B15" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>494</v>
+      </c>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
+    </row>
+    <row r="16" spans="2:8" ht="31.9" thickBot="1">
+      <c r="B16" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C16" s="56" t="s">
         <v>495</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
-    </row>
-    <row r="16" spans="2:8" ht="32.25" thickBot="1">
-      <c r="B16" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>496</v>
-      </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="59"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="58"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="6"/>
@@ -9464,7 +9893,7 @@
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -9475,10 +9904,10 @@
     </row>
     <row r="19" spans="2:8" ht="31.5" customHeight="1">
       <c r="B19" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="6"/>
@@ -9488,10 +9917,10 @@
     </row>
     <row r="20" spans="2:8" ht="30.75" customHeight="1">
       <c r="B20" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>498</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>499</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -9535,22 +9964,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C7:H7"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C10:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9568,6 +9997,28 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <RoutingRuleDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Product_x0020_Line xmlns="0c9d5067-d0dd-410d-82cb-2649a5139ead">
+      <Value>ALL</Value>
+      <Value>REACH</Value>
+    </Product_x0020_Line>
+    <Review_x0020_Status xmlns="0c9d5067-d0dd-410d-82cb-2649a5139ead">--</Review_x0020_Status>
+    <Creation_x0020_Date xmlns="0c9d5067-d0dd-410d-82cb-2649a5139ead">2019-01-16T23:00:00+00:00</Creation_x0020_Date>
+    <Include_x0020_in_x0020_E_x002d_mail_x0020_Alert_x003f_ xmlns="0c9d5067-d0dd-410d-82cb-2649a5139ead">false</Include_x0020_in_x0020_E_x002d_mail_x0020_Alert_x003f_>
+    <Additional_x0020_Info xmlns="0c9d5067-d0dd-410d-82cb-2649a5139ead">
+      <Value>External Use</Value>
+      <Value>REACH</Value>
+      <Value>EU</Value>
+    </Additional_x0020_Info>
+    <Trust_x0020_level xmlns="fc166b49-be8f-4717-b44f-64bdf79d23e5">04 - validated (without release)</Trust_x0020_level>
+    <eDOC_x0020_ID xmlns="0c9d5067-d0dd-410d-82cb-2649a5139ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A461BF71735FB34790691E3EDC92CD4E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58d8f4764a40238b4ddafc09790dd617">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fc166b49-be8f-4717-b44f-64bdf79d23e5" xmlns:ns3="0c9d5067-d0dd-410d-82cb-2649a5139ead" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c87fd7f9fbaa5c117db911251081d213" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9822,28 +10273,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <RoutingRuleDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Product_x0020_Line xmlns="0c9d5067-d0dd-410d-82cb-2649a5139ead">
-      <Value>ALL</Value>
-      <Value>REACH</Value>
-    </Product_x0020_Line>
-    <Review_x0020_Status xmlns="0c9d5067-d0dd-410d-82cb-2649a5139ead">--</Review_x0020_Status>
-    <Creation_x0020_Date xmlns="0c9d5067-d0dd-410d-82cb-2649a5139ead">2019-01-16T23:00:00+00:00</Creation_x0020_Date>
-    <Include_x0020_in_x0020_E_x002d_mail_x0020_Alert_x003f_ xmlns="0c9d5067-d0dd-410d-82cb-2649a5139ead">false</Include_x0020_in_x0020_E_x002d_mail_x0020_Alert_x003f_>
-    <Additional_x0020_Info xmlns="0c9d5067-d0dd-410d-82cb-2649a5139ead">
-      <Value>External Use</Value>
-      <Value>REACH</Value>
-      <Value>EU</Value>
-    </Additional_x0020_Info>
-    <Trust_x0020_level xmlns="fc166b49-be8f-4717-b44f-64bdf79d23e5">04 - validated (without release)</Trust_x0020_level>
-    <eDOC_x0020_ID xmlns="0c9d5067-d0dd-410d-82cb-2649a5139ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBC4B30B-4A37-4404-8A5E-4C9AD3516A01}">
   <ds:schemaRefs>
@@ -9853,6 +10282,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{331A34BA-53AF-4F34-BEF3-9D90179F3599}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="0c9d5067-d0dd-410d-82cb-2649a5139ead"/>
+    <ds:schemaRef ds:uri="fc166b49-be8f-4717-b44f-64bdf79d23e5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF25086-8DF1-42E0-B0D6-CC27C1AF1297}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9870,16 +10311,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{331A34BA-53AF-4F34-BEF3-9D90179F3599}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="0c9d5067-d0dd-410d-82cb-2649a5139ead"/>
-    <ds:schemaRef ds:uri="fc166b49-be8f-4717-b44f-64bdf79d23e5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>